--- a/Keyword Creation/N1 - CLAIMS ADMITTED.xlsx
+++ b/Keyword Creation/N1 - CLAIMS ADMITTED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -164,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -195,12 +195,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +238,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,10 +252,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,16 +274,16 @@
   </sheetPr>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="1" sqref="A14:A35 B31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5222672064777"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -408,7 +398,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -416,7 +406,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -425,7 +415,7 @@
       <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -433,7 +423,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -442,7 +432,7 @@
       <c r="C17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -451,7 +441,7 @@
       <c r="C18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -460,7 +450,7 @@
       <c r="C19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -469,7 +459,7 @@
       <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -478,7 +468,7 @@
       <c r="C21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -487,7 +477,7 @@
       <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -496,7 +486,7 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -504,7 +494,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -512,7 +502,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -520,7 +510,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -528,7 +518,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -536,7 +526,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -544,7 +534,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -552,7 +542,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -560,7 +550,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -568,7 +558,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -576,7 +566,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -584,7 +574,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="0" t="s">

--- a/Keyword Creation/N1 - CLAIMS ADMITTED.xlsx
+++ b/Keyword Creation/N1 - CLAIMS ADMITTED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t xml:space="preserve"> - </t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">REQUIERO AL DEUDOR PARA QUE EN EL PLAZO DE VEINTE DÍAS PAGUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMITO A TRÁMITE LA SOLICITUD DE ROCEDIMIENTO MONITORIO</t>
   </si>
   <si>
     <t xml:space="preserve">N1 - AMOUNT</t>
@@ -272,18 +275,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -399,41 +402,40 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -442,7 +444,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -451,7 +453,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -460,7 +462,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -469,7 +471,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -478,7 +480,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -487,15 +489,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -503,7 +506,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -511,7 +514,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>31</v>
@@ -519,7 +522,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>32</v>
@@ -527,7 +530,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>33</v>
@@ -535,7 +538,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>34</v>
@@ -543,7 +546,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>35</v>
@@ -551,7 +554,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>36</v>
@@ -559,7 +562,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>37</v>
@@ -567,7 +570,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>38</v>
@@ -575,23 +578,23 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -619,7 +622,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
